--- a/mf_products_data.xlsx
+++ b/mf_products_data.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suresh V\Desktop\automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA1BFFD-E158-4747-8D5F-C5B49194631B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B5F9D03-E6C4-445A-87C6-D19710A603DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5685" yWindow="1665" windowWidth="21600" windowHeight="11385" xr2:uid="{1E71232C-EF9C-4FE2-8681-349AE10419A2}"/>
+    <workbookView xWindow="5685" yWindow="1665" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{1E71232C-EF9C-4FE2-8681-349AE10419A2}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="category" sheetId="3" r:id="rId1"/>
+    <sheet name="variants" sheetId="4" r:id="rId2"/>
+    <sheet name="products" sheetId="1" r:id="rId3"/>
+    <sheet name="Generate_QR" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="44">
   <si>
     <t>product_name</t>
   </si>
@@ -125,22 +127,47 @@
   </si>
   <si>
     <t>001</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>variants_type</t>
+  </si>
+  <si>
+    <t>variants_value</t>
+  </si>
+  <si>
+    <t>apple</t>
+  </si>
+  <si>
+    <t>box</t>
+  </si>
+  <si>
+    <t>fan</t>
+  </si>
+  <si>
+    <t>002</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>PRD2025X02</t>
+  </si>
+  <si>
+    <t>glass</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -161,6 +188,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF808080"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -170,7 +226,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -178,28 +234,60 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -514,155 +602,283 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C3EF5A8-6DCE-48C0-BCE9-54199AD6514E}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75">
+      <c r="A1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49965304-110C-43B7-8F15-D1A55CEFA51D}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="27.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75">
+      <c r="A1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7A4F18C-1025-45CE-9112-F55A683B9C13}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24.42578125" customWidth="1"/>
     <col min="2" max="2" width="23.28515625" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" customWidth="1"/>
+    <col min="3" max="3" width="33" customWidth="1"/>
     <col min="4" max="4" width="26.7109375" customWidth="1"/>
     <col min="5" max="5" width="19.5703125" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" customWidth="1"/>
+    <col min="8" max="8" width="37.140625" customWidth="1"/>
     <col min="9" max="9" width="15.140625" customWidth="1"/>
     <col min="10" max="10" width="14.5703125" customWidth="1"/>
     <col min="11" max="11" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" ht="31.5">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:11" ht="47.25">
+      <c r="A2" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
+    <row r="3" spans="1:11" ht="47.25">
+      <c r="A3" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" ht="24" customHeight="1">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{8B51A6DA-AB47-4D21-B79F-C0F5CD9F6D1E}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{AB223196-CF71-46C6-A72C-98AA00DBB8D9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE3A9F92-C77C-4D8F-B88E-7CF0AEB70FC5}">
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.42578125" customWidth="1"/>
     <col min="2" max="2" width="19.140625" customWidth="1"/>
@@ -674,90 +890,106 @@
     <col min="8" max="8" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" ht="31.5">
+      <c r="A1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:8" ht="30">
+      <c r="A2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="5">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="5">
         <v>1</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="6">
         <v>45422</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="6">
         <v>46374</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+    <row r="3" spans="1:8" ht="30">
+      <c r="A3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="5">
+        <v>3</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="5">
+        <v>1</v>
+      </c>
+      <c r="E3" s="6">
+        <v>45423</v>
+      </c>
+      <c r="F3" s="6">
+        <v>46375</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/mf_products_data.xlsx
+++ b/mf_products_data.xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suresh V\Desktop\automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B5F9D03-E6C4-445A-87C6-D19710A603DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F7B3528-A265-41D3-8EFC-DB82381BF950}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5685" yWindow="1665" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{1E71232C-EF9C-4FE2-8681-349AE10419A2}"/>
+    <workbookView xWindow="6030" yWindow="2010" windowWidth="21600" windowHeight="11385" activeTab="6" xr2:uid="{1E71232C-EF9C-4FE2-8681-349AE10419A2}"/>
   </bookViews>
   <sheets>
     <sheet name="category" sheetId="3" r:id="rId1"/>
     <sheet name="variants" sheetId="4" r:id="rId2"/>
     <sheet name="products" sheetId="1" r:id="rId3"/>
     <sheet name="Generate_QR" sheetId="2" r:id="rId4"/>
+    <sheet name="Download_QR" sheetId="5" r:id="rId5"/>
+    <sheet name="Invalidate_QR" sheetId="6" r:id="rId6"/>
+    <sheet name="Reassign_Batch_QR" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="54">
   <si>
     <t>product_name</t>
   </si>
@@ -160,13 +163,43 @@
   </si>
   <si>
     <t>glass</t>
+  </si>
+  <si>
+    <t>search_value</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>iphone</t>
+  </si>
+  <si>
+    <t>B794-1</t>
+  </si>
+  <si>
+    <t>samsung</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>sports shoes</t>
+  </si>
+  <si>
+    <t>B794-20</t>
+  </si>
+  <si>
+    <t>B794-15</t>
+  </si>
+  <si>
+    <t>M794-M01-RUF3000R1-brown</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,6 +250,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF6D6D6D"/>
+      <name val="AtAero"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -254,7 +300,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -288,6 +334,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -699,7 +749,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7A4F18C-1025-45CE-9112-F55A683B9C13}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
+    <sheetView topLeftCell="D2" workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
@@ -992,4 +1042,154 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1F772D5-052E-4E49-A280-433F7105AE21}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20005091-BDA4-4A3D-AE3F-CBBA889C458C}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="22.28515625" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AD544E8-17D1-4A6A-AA69-0B11B1F7037D}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="30">
+      <c r="A2" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30">
+      <c r="A3" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/mf_products_data.xlsx
+++ b/mf_products_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suresh V\Desktop\automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F7B3528-A265-41D3-8EFC-DB82381BF950}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0380BAC3-D6C0-45CE-A29F-B2F4510356CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6030" yWindow="2010" windowWidth="21600" windowHeight="11385" activeTab="6" xr2:uid="{1E71232C-EF9C-4FE2-8681-349AE10419A2}"/>
+    <workbookView xWindow="2880" yWindow="3795" windowWidth="21600" windowHeight="11385" firstSheet="5" activeTab="8" xr2:uid="{1E71232C-EF9C-4FE2-8681-349AE10419A2}"/>
   </bookViews>
   <sheets>
     <sheet name="category" sheetId="3" r:id="rId1"/>
@@ -20,6 +20,9 @@
     <sheet name="Download_QR" sheetId="5" r:id="rId5"/>
     <sheet name="Invalidate_QR" sheetId="6" r:id="rId6"/>
     <sheet name="Reassign_Batch_QR" sheetId="7" r:id="rId7"/>
+    <sheet name="QR_Monitoring_Filters" sheetId="8" r:id="rId8"/>
+    <sheet name="QR_Monitoring_export_ID_based" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet2" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="67">
   <si>
     <t>product_name</t>
   </si>
@@ -193,6 +196,45 @@
   </si>
   <si>
     <t>M794-M01-RUF3000R1-brown</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>usermobile</t>
+  </si>
+  <si>
+    <t>device_name</t>
+  </si>
+  <si>
+    <t>start_date</t>
+  </si>
+  <si>
+    <t>end_date</t>
+  </si>
+  <si>
+    <t>testuser</t>
+  </si>
+  <si>
+    <t>iOS</t>
+  </si>
+  <si>
+    <t>2026-01-02</t>
+  </si>
+  <si>
+    <t>2025-12-30</t>
+  </si>
+  <si>
+    <t>Report_start_Id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Report_end_Id </t>
+  </si>
+  <si>
+    <t>select_user</t>
+  </si>
+  <si>
+    <t>Le beta</t>
   </si>
 </sst>
 </file>
@@ -300,7 +342,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -338,6 +380,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -691,6 +739,18 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBE76918-F0A7-4D6C-A220-F9B93E3F4D71}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49965304-110C-43B7-8F15-D1A55CEFA51D}">
   <dimension ref="A1:C3"/>
@@ -1134,7 +1194,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AD544E8-17D1-4A6A-AA69-0B11B1F7037D}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -1192,4 +1252,126 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53E074F5-B44C-4106-9E25-B7057DCD56B5}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" customWidth="1"/>
+    <col min="6" max="6" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="15"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="5">
+        <v>9999999999</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C593467-91D7-45A0-AB4C-29552EB2F315}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>5000</v>
+      </c>
+      <c r="B2">
+        <v>6000</v>
+      </c>
+      <c r="C2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/mf_products_data.xlsx
+++ b/mf_products_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suresh V\Desktop\automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0380BAC3-D6C0-45CE-A29F-B2F4510356CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E43D31C-1716-48EA-AB73-6D4E3969F31E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="3795" windowWidth="21600" windowHeight="11385" firstSheet="5" activeTab="8" xr2:uid="{1E71232C-EF9C-4FE2-8681-349AE10419A2}"/>
+    <workbookView xWindow="4170" yWindow="1965" windowWidth="21600" windowHeight="11385" firstSheet="10" activeTab="12" xr2:uid="{1E71232C-EF9C-4FE2-8681-349AE10419A2}"/>
   </bookViews>
   <sheets>
     <sheet name="category" sheetId="3" r:id="rId1"/>
@@ -21,8 +21,11 @@
     <sheet name="Invalidate_QR" sheetId="6" r:id="rId6"/>
     <sheet name="Reassign_Batch_QR" sheetId="7" r:id="rId7"/>
     <sheet name="QR_Monitoring_Filters" sheetId="8" r:id="rId8"/>
-    <sheet name="QR_Monitoring_export_ID_based" sheetId="9" r:id="rId9"/>
-    <sheet name="Sheet2" sheetId="10" r:id="rId10"/>
+    <sheet name="QR_Monitoring_Filter_By_field" sheetId="11" r:id="rId9"/>
+    <sheet name="QR_Monitoring_fake_product_fdb" sheetId="12" r:id="rId10"/>
+    <sheet name="QR_Monitoring_export_ID_based" sheetId="9" r:id="rId11"/>
+    <sheet name="QR_Monitoring_export_Bulk_ID" sheetId="10" r:id="rId12"/>
+    <sheet name="Batch_status_report" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="74">
   <si>
     <t>product_name</t>
   </si>
@@ -204,9 +207,6 @@
     <t>usermobile</t>
   </si>
   <si>
-    <t>device_name</t>
-  </si>
-  <si>
     <t>start_date</t>
   </si>
   <si>
@@ -216,9 +216,6 @@
     <t>testuser</t>
   </si>
   <si>
-    <t>iOS</t>
-  </si>
-  <si>
     <t>2026-01-02</t>
   </si>
   <si>
@@ -234,14 +231,41 @@
     <t>select_user</t>
   </si>
   <si>
-    <t>Le beta</t>
+    <t>Le beta (9619583752)</t>
+  </si>
+  <si>
+    <t>Bulk_Id</t>
+  </si>
+  <si>
+    <t>5000,5001,5002</t>
+  </si>
+  <si>
+    <t>2025-12-31</t>
+  </si>
+  <si>
+    <t>report_name</t>
+  </si>
+  <si>
+    <t>select_format</t>
+  </si>
+  <si>
+    <t>select_duration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sample </t>
+  </si>
+  <si>
+    <t>CSV</t>
+  </si>
+  <si>
+    <t>Last 90 Days</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -305,6 +329,12 @@
       <color rgb="FF6D6D6D"/>
       <name val="AtAero"/>
     </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF6A8759"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -342,7 +372,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -385,6 +415,10 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -740,14 +774,176 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBE76918-F0A7-4D6C-A220-F9B93E3F4D71}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28BF2E4E-D2AD-4788-84CE-589D65DD9913}">
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C593467-91D7-45A0-AB4C-29552EB2F315}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>5000</v>
+      </c>
+      <c r="B2">
+        <v>6000</v>
+      </c>
+      <c r="C2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBE76918-F0A7-4D6C-A220-F9B93E3F4D71}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" style="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8812D42C-EE85-4119-BC63-85E0A2A59C8A}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1256,23 +1452,22 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53E074F5-B44C-4106-9E25-B7057DCD56B5}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.85546875" customWidth="1"/>
     <col min="2" max="2" width="17.7109375" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" customWidth="1"/>
-    <col min="6" max="6" width="21" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" s="17" t="s">
         <v>54</v>
       </c>
@@ -1285,47 +1480,39 @@
       <c r="D1" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1" s="15"/>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="E1" s="15"/>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
+      <c r="C2" s="18" t="s">
+        <v>60</v>
+      </c>
       <c r="D2" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6">
+        <v>59</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B3" s="5">
         <v>9999999999</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>60</v>
+      <c r="C3" s="18" t="s">
+        <v>59</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6">
+        <v>59</v>
+      </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1335,43 +1522,65 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C593467-91D7-45A0-AB4C-29552EB2F315}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{805A6EDD-E425-4375-9798-049A39968A7E}">
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="25.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>5000</v>
-      </c>
-      <c r="B2">
-        <v>6000</v>
-      </c>
-      <c r="C2" t="s">
-        <v>66</v>
-      </c>
+    <row r="1" spans="1:4">
+      <c r="A1" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/mf_products_data.xlsx
+++ b/mf_products_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suresh V\Desktop\automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E43D31C-1716-48EA-AB73-6D4E3969F31E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C6EAEC-17FB-4F89-9F13-9193097DD31F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4170" yWindow="1965" windowWidth="21600" windowHeight="11385" firstSheet="10" activeTab="12" xr2:uid="{1E71232C-EF9C-4FE2-8681-349AE10419A2}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{1E71232C-EF9C-4FE2-8681-349AE10419A2}"/>
   </bookViews>
   <sheets>
     <sheet name="category" sheetId="3" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <sheet name="QR_Monitoring_export_ID_based" sheetId="9" r:id="rId11"/>
     <sheet name="QR_Monitoring_export_Bulk_ID" sheetId="10" r:id="rId12"/>
     <sheet name="Batch_status_report" sheetId="13" r:id="rId13"/>
+    <sheet name="LoginData" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="84">
   <si>
     <t>product_name</t>
   </si>
@@ -123,18 +124,9 @@
     <t>1.5 cm</t>
   </si>
   <si>
-    <t>PRD2025X01</t>
-  </si>
-  <si>
-    <t>specs</t>
-  </si>
-  <si>
     <t>lenskart</t>
   </si>
   <si>
-    <t>lenss</t>
-  </si>
-  <si>
     <t>001</t>
   </si>
   <si>
@@ -150,24 +142,12 @@
     <t>variants_value</t>
   </si>
   <si>
-    <t>apple</t>
-  </si>
-  <si>
-    <t>box</t>
-  </si>
-  <si>
-    <t>fan</t>
-  </si>
-  <si>
     <t>002</t>
   </si>
   <si>
     <t>blue</t>
   </si>
   <si>
-    <t>PRD2025X02</t>
-  </si>
-  <si>
     <t>glass</t>
   </si>
   <si>
@@ -180,9 +160,6 @@
     <t>iphone</t>
   </si>
   <si>
-    <t>B794-1</t>
-  </si>
-  <si>
     <t>samsung</t>
   </si>
   <si>
@@ -259,13 +236,67 @@
   </si>
   <si>
     <t>Last 90 Days</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>admin2</t>
+  </si>
+  <si>
+    <t>pass456</t>
+  </si>
+  <si>
+    <t>arivu22@mailinator.com</t>
+  </si>
+  <si>
+    <t>Admin@123</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>QR Code with Microtext and Invisible Text</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>sample123@gmail.com</t>
+  </si>
+  <si>
+    <t>test@123</t>
+  </si>
+  <si>
+    <t>sample</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>mobile</t>
+  </si>
+  <si>
+    <t>waterbottle</t>
+  </si>
+  <si>
+    <t>PRD2025X0003</t>
+  </si>
+  <si>
+    <t>PRD2025X0004</t>
+  </si>
+  <si>
+    <t>B155-1001</t>
+  </si>
+  <si>
+    <t>B155-1000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -335,6 +366,12 @@
       <name val="JetBrains Mono"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFDEE4E4"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -372,7 +409,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -420,6 +457,14 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -742,18 +787,21 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75">
       <c r="A1" s="8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>11</v>
@@ -761,7 +809,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -791,26 +839,26 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="19" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="18" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -847,13 +895,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -864,7 +912,7 @@
         <v>6000</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -887,12 +935,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="4" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="4" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -908,7 +956,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8812D42C-EE85-4119-BC63-85E0A2A59C8A}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -921,29 +969,90 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="20" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A9810B8-64D0-4E9C-8574-FE25F4330D20}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="30.42578125" customWidth="1"/>
+    <col min="2" max="2" width="42.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="5"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="mailto:arivu22@mailinator.com" xr:uid="{11740D6A-1306-438E-85E4-D186888C6B99}"/>
+    <hyperlink ref="A4" r:id="rId2" xr:uid="{2D395AC9-8721-4491-AD1A-17CA1EB46C17}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{B6C125EC-0713-483B-A426-D3A1B7219A8B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -952,7 +1061,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -964,21 +1073,21 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75">
       <c r="A1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>33</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>14</v>
@@ -986,13 +1095,13 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1005,8 +1114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7A4F18C-1025-45CE-9112-F55A683B9C13}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView topLeftCell="D2" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1061,10 +1170,10 @@
     </row>
     <row r="2" spans="1:11" ht="47.25">
       <c r="A2" s="11" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>15</v>
@@ -1073,10 +1182,10 @@
         <v>16</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>31</v>
+        <v>80</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>11</v>
@@ -1088,7 +1197,7 @@
         <v>13</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K2" s="11" t="s">
         <v>14</v>
@@ -1096,10 +1205,10 @@
     </row>
     <row r="3" spans="1:11" ht="47.25">
       <c r="A3" s="11" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>15</v>
@@ -1108,10 +1217,10 @@
         <v>16</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>31</v>
+        <v>81</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="G3" s="11" t="s">
         <v>11</v>
@@ -1123,7 +1232,7 @@
         <v>13</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K3" s="11" t="s">
         <v>14</v>
@@ -1178,10 +1287,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE3A9F92-C77C-4D8F-B88E-7CF0AEB70FC5}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView zoomScale="88" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1194,9 +1303,10 @@
     <col min="6" max="6" width="19.5703125" customWidth="1"/>
     <col min="7" max="7" width="16.85546875" customWidth="1"/>
     <col min="8" max="8" width="20.85546875" customWidth="1"/>
+    <col min="9" max="9" width="40.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31.5">
+    <row r="1" spans="1:9" ht="31.5">
       <c r="A1" s="10" t="s">
         <v>25</v>
       </c>
@@ -1221,13 +1331,16 @@
       <c r="H1" s="10" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="30">
+      <c r="I1" s="22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="30">
       <c r="A2" s="5" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="B2" s="5">
-        <v>3</v>
+        <v>1000</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>24</v>
@@ -1247,13 +1360,16 @@
       <c r="H2" s="5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="30">
+      <c r="I2" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="30">
       <c r="A3" s="5" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="B3" s="5">
-        <v>3</v>
+        <v>1001</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>24</v>
@@ -1273,8 +1389,11 @@
       <c r="H3" s="5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1284,7 +1403,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1294,9 +1413,13 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
+    <row r="12" spans="1:9">
+      <c r="D12" s="23"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1305,7 +1428,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1316,26 +1439,26 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="15" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>47</v>
+      <c r="A2" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>46</v>
+      <c r="A3" t="s">
+        <v>82</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1359,7 +1482,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="15" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>6</v>
@@ -1367,18 +1490,18 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1404,13 +1527,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="15" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>18</v>
@@ -1418,30 +1541,30 @@
     </row>
     <row r="2" spans="1:4" ht="30">
       <c r="A2" s="16" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30">
       <c r="A3" s="16" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1454,8 +1577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53E074F5-B44C-4106-9E25-B7057DCD56B5}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1469,16 +1592,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="17" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E1" s="15"/>
     </row>
@@ -1486,25 +1609,25 @@
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="18" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="5" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B3" s="5">
         <v>9999999999</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E3" s="1"/>
     </row>
@@ -1539,26 +1662,26 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="19" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="18" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:4">

--- a/mf_products_data.xlsx
+++ b/mf_products_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suresh V\Desktop\automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C6EAEC-17FB-4F89-9F13-9193097DD31F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19EF0449-95C5-487E-BED1-C2E4B613879F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{1E71232C-EF9C-4FE2-8681-349AE10419A2}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{1E71232C-EF9C-4FE2-8681-349AE10419A2}"/>
   </bookViews>
   <sheets>
     <sheet name="category" sheetId="3" r:id="rId1"/>
@@ -782,8 +782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C3EF5A8-6DCE-48C0-BCE9-54199AD6514E}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1114,7 +1114,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7A4F18C-1025-45CE-9112-F55A683B9C13}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>

--- a/mf_products_data.xlsx
+++ b/mf_products_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suresh V\Desktop\automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19EF0449-95C5-487E-BED1-C2E4B613879F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CBAD8E5-F984-44F3-8A60-7BA4532451C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{1E71232C-EF9C-4FE2-8681-349AE10419A2}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{1E71232C-EF9C-4FE2-8681-349AE10419A2}"/>
   </bookViews>
   <sheets>
     <sheet name="category" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="85">
   <si>
     <t>product_name</t>
   </si>
@@ -274,22 +274,25 @@
     <t>test</t>
   </si>
   <si>
-    <t>mobile</t>
-  </si>
-  <si>
     <t>waterbottle</t>
   </si>
   <si>
-    <t>PRD2025X0003</t>
-  </si>
-  <si>
     <t>PRD2025X0004</t>
   </si>
   <si>
     <t>B155-1001</t>
   </si>
   <si>
-    <t>B155-1000</t>
+    <t>chair</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>PRD2025X0005</t>
+  </si>
+  <si>
+    <t>B155-1002</t>
   </si>
 </sst>
 </file>
@@ -782,8 +785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C3EF5A8-6DCE-48C0-BCE9-54199AD6514E}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -801,7 +804,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>11</v>
@@ -809,7 +812,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -1061,7 +1064,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1084,10 +1087,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>14</v>
@@ -1095,7 +1098,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>34</v>
@@ -1115,7 +1118,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1182,10 +1185,10 @@
         <v>16</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>11</v>
@@ -1197,7 +1200,7 @@
         <v>13</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="K2" s="11" t="s">
         <v>14</v>
@@ -1217,10 +1220,10 @@
         <v>16</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G3" s="11" t="s">
         <v>11</v>
@@ -1290,7 +1293,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView zoomScale="88" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1337,10 +1340,10 @@
     </row>
     <row r="2" spans="1:9" ht="30">
       <c r="A2" s="5" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B2" s="5">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>24</v>
@@ -1366,7 +1369,7 @@
     </row>
     <row r="3" spans="1:9" ht="30">
       <c r="A3" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B3" s="5">
         <v>1001</v>
@@ -1427,8 +1430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1F772D5-052E-4E49-A280-433F7105AE21}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1447,7 +1450,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>38</v>
@@ -1455,7 +1458,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>38</v>
